--- a/TP1/dernière partie.xlsx
+++ b/TP1/dernière partie.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Antoine\OneDrive\Documents\!ENSIBS\ENSIBS\Math\Nombre aléa\Generateur_Pseudo_Aleatoire\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Antoine\OneDrive\Documents\!ENSIBS\ENSIBS\Math\Nombre aléa\Generateur_Pseudo_Aleatoire\TP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="19" documentId="11_561B52CE19AA29FB3715F8D470F64EEDFDA15D4F" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{D8DA67F3-4848-4F7B-9930-38C448684EDA}"/>

--- a/TP1/dernière partie.xlsx
+++ b/TP1/dernière partie.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20222"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Antoine\OneDrive\Documents\!ENSIBS\ENSIBS\Math\Nombre aléa\Generateur_Pseudo_Aleatoire\TP1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_561B52CE19AA29FB3715F8D470F64EEDFDA15D4F" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{D8DA67F3-4848-4F7B-9930-38C448684EDA}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="11_561B52CE19AA29FB3715F8D470F64EEDFDA15D4F" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{E91885E4-6676-400A-82CC-3C7F658E70FE}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -12823,7 +12823,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fr-FR"/>
-              <a:t>Congruence linéaire</a:t>
+              <a:t>Congruence linéaire premier</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR" baseline="0"/>
+              <a:t> générateur avec mauvais paramètres</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t> </a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -19136,7 +19144,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Congruence linéaire 2</a:t>
+              <a:t>Congruence linéaire 2 premier générateur avec excellent paramètre</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -28093,8 +28101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AE93" sqref="AE93"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AH80" sqref="AH80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
